--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex3.1.3" sheetId="1" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4">
-        <v>43101</v>
+        <v>42736</v>
       </c>
       <c r="C2" s="4">
-        <v>43465</v>
+        <v>43100</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="C3" s="4">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1033,6 +1033,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>43466</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43830</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1094,7 +1100,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C4 B5:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
@@ -1128,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1261,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -1265,7 +1271,7 @@
       </c>
       <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>L, M, M1 à M3</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ex3.1.3" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>METHODE</t>
   </si>
   <si>
-    <t>GROUPER_PAR</t>
-  </si>
-  <si>
     <t>Selection</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>48222</t>
+  </si>
+  <si>
+    <t>RESULTATS_PAR</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
     <col min="2" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -544,10 +544,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -577,7 +577,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
@@ -640,12 +640,12 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="6" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
     <col min="2" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -762,13 +762,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -798,7 +798,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -858,12 +858,12 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="6" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +917,7 @@
     <col min="2" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         <v>43465</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1040,7 +1040,7 @@
         <v>43830</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
@@ -1085,12 +1085,12 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="6" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
@@ -1100,7 +1100,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C4 B5:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1144,7 @@
     <col min="2" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -1174,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1210,10 +1210,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -1309,12 +1309,12 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="6" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -17,7 +17,8 @@
     <sheet name="ex3.1.3.3" sheetId="9" r:id="rId3"/>
     <sheet name="ex3.1.3.4" sheetId="10" r:id="rId4"/>
     <sheet name="ex3.1.3.5" sheetId="11" r:id="rId5"/>
-    <sheet name="ex3.1.3.6" sheetId="12" r:id="rId6"/>
+    <sheet name="ex3.1.3.6" sheetId="13" r:id="rId6"/>
+    <sheet name="ex3.1.3.7" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="35">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -1658,7 +1659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1726,6 +1729,254 @@
         <v>43101</v>
       </c>
       <c r="C2" s="5">
+        <v>43190</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
+        <v/>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43191</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43281</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
+        <v/>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>43282</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43373</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>43374</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" ref="N13:N14" si="2">IF(COUNTIF(F3,M13),"",M13)</f>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$N$2:$N$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$N$7:$N$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$P$2:$P$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>$N$12:$N$14</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -2,23 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="ex3.1.3.1" sheetId="7" r:id="rId1"/>
-    <sheet name="ex3.1.3.2" sheetId="8" r:id="rId2"/>
-    <sheet name="ex3.1.3.3" sheetId="9" r:id="rId3"/>
-    <sheet name="ex3.1.3.4" sheetId="10" r:id="rId4"/>
-    <sheet name="ex3.1.3.5" sheetId="11" r:id="rId5"/>
-    <sheet name="ex3.1.3.6" sheetId="13" r:id="rId6"/>
-    <sheet name="ex3.1.3.7" sheetId="12" r:id="rId7"/>
+    <sheet name="ex3.1.3.1" sheetId="14" r:id="rId1"/>
+    <sheet name="ex3.1.3.2" sheetId="15" r:id="rId2"/>
+    <sheet name="ex3.1.3.3" sheetId="16" r:id="rId3"/>
+    <sheet name="ex3.1.3.4" sheetId="17" r:id="rId4"/>
+    <sheet name="ex3.2.3.1" sheetId="7" r:id="rId5"/>
+    <sheet name="ex3.2.3.2" sheetId="8" r:id="rId6"/>
+    <sheet name="ex3.2.3.3" sheetId="9" r:id="rId7"/>
+    <sheet name="ex3.2.3.4" sheetId="10" r:id="rId8"/>
+    <sheet name="ex3.2.3.5" sheetId="11" r:id="rId9"/>
+    <sheet name="ex3.2.3.6" sheetId="13" r:id="rId10"/>
+    <sheet name="ex3.1.3.7" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="38">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -144,6 +148,15 @@
   </si>
   <si>
     <t>48222</t>
+  </si>
+  <si>
+    <t>RX_RETROSPECT_A_EXCLURE</t>
+  </si>
+  <si>
+    <t>NJOURS_SANS_CONSO</t>
+  </si>
+  <si>
+    <t>naif_switch1</t>
   </si>
 </sst>
 </file>
@@ -187,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -195,6 +208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +496,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>47873</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10">
+        <v>365</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="9">
+        <v>47958</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
+        <v>AD</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>48213</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>IF(COUNTIF(F2,O12),"",O12)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$P$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
+      <formula1>$R$2:$R$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+      <formula1>$P$7:$P$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$P$2:$P$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -482,15 +736,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -545,16 +801,16 @@
         <v>43101</v>
       </c>
       <c r="C2" s="5">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -578,13 +834,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
-        <v>43466</v>
+        <v>43191</v>
       </c>
       <c r="C3" s="5">
-        <v>43830</v>
+        <v>43281</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -601,8 +857,11 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>29</v>
+      <c r="B4" s="5">
+        <v>43282</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43373</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -612,6 +871,14 @@
         <v>L, M, M1 à M3</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>43374</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43465</v>
+      </c>
+    </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M6" s="3" t="s">
         <v>20</v>
@@ -656,7 +923,7 @@
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
-        <v>Codes</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -679,39 +946,40 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$N$2:$N$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$N$7:$N$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$P$2:$P$3</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>$N$12:$N$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F5:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
-      <formula1>35065</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -719,15 +987,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -791,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -801,6 +1071,9 @@
       </c>
       <c r="I2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
@@ -826,6 +1099,9 @@
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
@@ -839,7 +1115,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -861,7 +1137,7 @@
       </c>
       <c r="N7" s="4" t="str">
         <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
-        <v>03</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -870,7 +1146,7 @@
       </c>
       <c r="N8" s="4" t="str">
         <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -893,7 +1169,7 @@
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
-        <v/>
+        <v>Codes</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -941,6 +1217,238 @@
       <formula1>$N$12:$N$14</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>47873</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="10">
+        <v>365</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="9">
+        <v>47958</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
+        <v>AD</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>48213</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>IF(COUNTIF(F2,O12),"",O12)</f>
+        <v>Codes</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$P$2:$P$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+      <formula1>$P$7:$P$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
+      <formula1>$R$2:$R$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$P$12</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -949,6 +1457,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3"/>
+    <col min="5" max="5" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2241927</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="10">
+        <v>365</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
+        <v>AD</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>IF(COUNTIF(F2,O12),"",O12)</f>
+        <v>Codes</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$P$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
+      <formula1>$R$2:$R$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+      <formula1>$P$7:$P$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$P$2:$P$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2257238</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2042479</v>
+      </c>
+      <c r="H2" s="10">
+        <v>365</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,O2),"",O2)</f>
+        <v/>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2272903</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2042487</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P4" si="0">IF(COUNTIF($J$2:$J$4,O3),"",O3)</f>
+        <v>AD</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G4" s="10">
+        <v>2257238</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G5" s="10">
+        <v>2272903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <v>2317192</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="10">
+        <v>2317206</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>IF(COUNTIF($L$2:$L$4,O7),"",O7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" ref="P8:P9" si="1">IF(COUNTIF($L$2:$L$4,O8),"",O8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>IF(COUNTIF(F2,O12),"",O12)</f>
+        <v>Codes</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G2:G7">
+    <sortCondition ref="G2"/>
+  </sortState>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F4" sqref="F5:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule K2" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$P$2:$P$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules L2 à L4" sqref="L5:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+      <formula1>$P$7:$P$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 K2">
+      <formula1>$R$2:$R$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$P$12</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -956,15 +1942,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -1022,13 +2010,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -1058,7 +2046,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -1075,6 +2063,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +2118,7 @@
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
-        <v/>
+        <v>Codes</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1181,8 +2172,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1190,15 +2182,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -1294,9 +2288,6 @@
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +2304,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1421,8 +2412,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1430,15 +2422,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -1496,10 +2490,10 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -1532,7 +2526,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -1655,26 +2649,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -1729,13 +2724,13 @@
         <v>43101</v>
       </c>
       <c r="C2" s="5">
-        <v>43190</v>
+        <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
@@ -1762,13 +2757,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
-        <v>43191</v>
+        <v>43466</v>
       </c>
       <c r="C3" s="5">
-        <v>43281</v>
+        <v>43830</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -1785,11 +2783,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43373</v>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
@@ -1797,14 +2792,6 @@
       <c r="N4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C5" s="5">
-        <v>43465</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1905,8 +2892,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1914,15 +2902,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" hidden="1" customWidth="1"/>
@@ -1983,10 +2973,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -1996,9 +2986,6 @@
       </c>
       <c r="I2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
@@ -2019,13 +3006,10 @@
         <v>43830</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>9</v>
@@ -2039,9 +3023,6 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2062,7 +3043,7 @@
       </c>
       <c r="N7" s="4" t="str">
         <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
-        <v/>
+        <v>03</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2071,7 +3052,7 @@
       </c>
       <c r="N8" s="4" t="str">
         <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
-        <v/>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2094,7 +3075,7 @@
       </c>
       <c r="N12" s="4" t="str">
         <f>IF(COUNTIF(F2,M12),"",M12)</f>
-        <v>Codes</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2117,31 +3098,31 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>$N$12:$N$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$P$2:$P$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$N$7:$N$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$N$2:$N$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F5:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F5:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$N$2:$N$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$N$7:$N$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$P$2:$P$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
-      <formula1>$N$12:$N$14</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -12,17 +12,20 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="naif_switch1_ex03" sheetId="22" r:id="rId1"/>
-    <sheet name="naif_switch1_ex04" sheetId="23" r:id="rId2"/>
-    <sheet name="naif_switch1_ex05" sheetId="24" r:id="rId3"/>
-    <sheet name="naif_switch1_ex06" sheetId="26" r:id="rId4"/>
-    <sheet name="naif_switch1_ex07" sheetId="27" r:id="rId5"/>
-    <sheet name="naif_switch1_ex08" sheetId="28" r:id="rId6"/>
-    <sheet name="naif_switch1_ex09" sheetId="29" r:id="rId7"/>
-    <sheet name="stat_gen1_ex03" sheetId="34" r:id="rId8"/>
-    <sheet name="stat_gen1_ex04" sheetId="42" r:id="rId9"/>
-    <sheet name="stat_gen1_ex05" sheetId="43" r:id="rId10"/>
-    <sheet name="stat_gen1_ex06" sheetId="44" r:id="rId11"/>
+    <sheet name="naif_switch1_ex02" sheetId="45" r:id="rId1"/>
+    <sheet name="naif_switch1_ex03" sheetId="22" r:id="rId2"/>
+    <sheet name="naif_switch1_ex04" sheetId="23" r:id="rId3"/>
+    <sheet name="naif_switch1_ex05" sheetId="24" r:id="rId4"/>
+    <sheet name="naif_switch1_ex06" sheetId="26" r:id="rId5"/>
+    <sheet name="naif_switch1_ex07" sheetId="27" r:id="rId6"/>
+    <sheet name="naif_switch1_ex08" sheetId="28" r:id="rId7"/>
+    <sheet name="naif_switch1_ex09" sheetId="29" r:id="rId8"/>
+    <sheet name="stat_gen1_ex02" sheetId="46" r:id="rId9"/>
+    <sheet name="stat_gen1_ex03" sheetId="34" r:id="rId10"/>
+    <sheet name="stat_gen1_ex04" sheetId="42" r:id="rId11"/>
+    <sheet name="stat_gen1_ex05" sheetId="43" r:id="rId12"/>
+    <sheet name="stat_gen1_ex06" sheetId="44" r:id="rId13"/>
+    <sheet name="stat_gen1_ex07" sheetId="47" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="53">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -171,9 +174,6 @@
     <t>_type_rx_retro</t>
   </si>
   <si>
-    <t>040408</t>
-  </si>
-  <si>
     <t>04----</t>
   </si>
   <si>
@@ -198,13 +198,13 @@
     <t>2453312</t>
   </si>
   <si>
-    <t>040412</t>
+    <t>2018-01-01</t>
   </si>
   <si>
-    <t>08----</t>
+    <t>08--12</t>
   </si>
   <si>
-    <t>2018-01-01</t>
+    <t>122426</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -681,6 +681,9 @@
       <c r="E3" s="9">
         <v>47092</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
@@ -700,6 +703,9 @@
       <c r="E4" s="9">
         <v>47135</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
         <v>18</v>
@@ -710,9 +716,15 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N6"/>
       <c r="Q6" s="3" t="s">
         <v>19</v>
@@ -720,6 +732,9 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N7"/>
       <c r="Q7" s="3" t="s">
         <v>20</v>
@@ -730,6 +745,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N8"/>
       <c r="Q8" s="3" t="s">
         <v>21</v>
@@ -740,6 +758,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="N9"/>
       <c r="Q9" s="3" t="s">
         <v>22</v>
@@ -765,7 +786,7 @@
       </c>
       <c r="R12" s="4" t="str">
         <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
-        <v>AHFS</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -785,7 +806,7 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>DIN</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -795,7 +816,7 @@
       </c>
       <c r="R15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CodeList</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -805,7 +826,7 @@
       </c>
       <c r="R16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CodeServ</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="14:18" x14ac:dyDescent="0.25">
@@ -815,7 +836,7 @@
       </c>
       <c r="R17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Teneur</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="14:18" x14ac:dyDescent="0.25">
@@ -825,7 +846,7 @@
       </c>
       <c r="R18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Format</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="14:18" x14ac:dyDescent="0.25">
@@ -834,7 +855,7 @@
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Age</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="14:18" x14ac:dyDescent="0.25">
@@ -871,37 +892,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
-      <formula1>$R$2:$R$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
-      <formula1>$R$7:$R$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
-      <formula1>$T$2:$T$3</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
-      <formula1>$R$12:$R$19</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>$R$22:$R$24</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -909,6 +930,581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
+        <v>DENOM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"AHFS, DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$O$2:$O$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$O$7:$O$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$Q$2:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$Q$2:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$O$7:$O$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$O$2:$O$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"AHFS, DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -1191,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
@@ -1288,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
@@ -1475,6 +2071,299 @@
       <formula1>35065</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
+        <v/>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"AHFS, DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$O$2:$O$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$O$7:$O$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$Q$2:$Q$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$O$12:$O$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1485,9 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1506,9 +2393,9 @@
     <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="5.85546875" customWidth="1"/>
@@ -1576,13 +2463,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9">
-        <v>30848</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -1616,7 +2503,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="9">
-        <v>585092</v>
+        <v>47092</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -1634,6 +2521,9 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>47135</v>
+      </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
         <v>18</v>
@@ -1709,7 +2599,7 @@
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
-        <v>DENOM</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1719,7 +2609,7 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DIN</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1805,37 +2695,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
-      <formula1>$R$12:$R$19</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
-      <formula1>$T$2:$T$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
-      <formula1>$R$7:$R$9</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
-      <formula1>$R$2:$R$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
-      <formula1>35065</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1867,7 +2757,7 @@
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="5.85546875" customWidth="1"/>
@@ -1935,19 +2825,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9">
-        <v>47092</v>
+        <v>30848</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -1981,7 +2865,7 @@
         <v>43830</v>
       </c>
       <c r="E3" s="9">
-        <v>47135</v>
+        <v>585092</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -2074,7 +2958,7 @@
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
-        <v/>
+        <v>DENOM</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2084,7 +2968,7 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>DIN</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2147,7 +3031,7 @@
       </c>
       <c r="R22" s="4" t="str">
         <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
-        <v/>
+        <v>AHFS</v>
       </c>
     </row>
     <row r="23" spans="14:18" x14ac:dyDescent="0.25">
@@ -2170,37 +3054,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
-      <formula1>$R$2:$R$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
-      <formula1>$R$7:$R$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
-      <formula1>$T$2:$T$3</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
-      <formula1>$R$12:$R$19</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>$R$22:$R$24</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2312,7 +3196,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -2349,7 +3233,7 @@
         <v>47135</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -2368,7 +3252,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
@@ -2528,6 +3412,377 @@
       <c r="R23" s="4" t="str">
         <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
         <v>DENOM</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>DIN</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="17">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+      <formula1>35065</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"DENOM, DIN"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+      <formula1>$R$2:$R$4</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>$R$7:$R$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+      <formula1>$T$2:$T$3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+      <formula1>$R$12:$R$19</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$R$22:$R$24</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9">
+        <v>47092</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="10">
+        <v>365</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="str">
+        <f>IF(COUNTIF($K$2:$K$4,Q2),"",Q2)</f>
+        <v/>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E3" s="9">
+        <v>47135</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3"/>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R4" si="0">IF(COUNTIF($K$2:$K$4,Q3),"",Q3)</f>
+        <v/>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4"/>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>L, M, M1 à M3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N6"/>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N7"/>
+      <c r="Q7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>IF(COUNTIF($M$2:$M$4,Q7),"",Q7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N8"/>
+      <c r="Q8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N9"/>
+      <c r="Q9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N11"/>
+      <c r="Q11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12"/>
+      <c r="Q12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <f>IF(COUNTIF($F$2:$F$9,Q12),"",Q12)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13"/>
+      <c r="Q13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14"/>
+      <c r="Q14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>DIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15"/>
+      <c r="Q15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeList</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16"/>
+      <c r="Q16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeServ</v>
+      </c>
+    </row>
+    <row r="17" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N17"/>
+      <c r="Q17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Teneur</v>
+      </c>
+    </row>
+    <row r="18" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N18"/>
+      <c r="Q18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Format</v>
+      </c>
+    </row>
+    <row r="19" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Age</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <f>IF(COUNTIF($G$2,Q22),"",Q22)</f>
+        <v>AHFS</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="14:18" x14ac:dyDescent="0.25">
@@ -2578,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -2680,10 +3935,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -2716,11 +3971,11 @@
       <c r="C3" s="5">
         <v>43830</v>
       </c>
-      <c r="E3" s="9">
-        <v>47135</v>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -2739,7 +3994,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
@@ -2751,6 +4006,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2826,7 +4084,7 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>DIN</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2898,7 +4156,7 @@
       </c>
       <c r="R23" s="4" t="str">
         <f t="shared" ref="R23:R24" si="3">IF(COUNTIF($G$2,Q23),"",Q23)</f>
-        <v/>
+        <v>DENOM</v>
       </c>
     </row>
     <row r="24" spans="14:18" x14ac:dyDescent="0.25">
@@ -2907,7 +4165,7 @@
       </c>
       <c r="R24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>DIN</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -3042,19 +4300,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9">
-        <v>47092</v>
+        <v>30848</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -3068,7 +4320,9 @@
       <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="11">
+        <v>43256</v>
+      </c>
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
@@ -3087,11 +4341,11 @@
       <c r="C3" s="5">
         <v>43830</v>
       </c>
+      <c r="E3" s="9">
+        <v>585092</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
@@ -3109,9 +4363,6 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H4" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
         <v>18</v>
@@ -3122,9 +4373,6 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3190,7 +4438,7 @@
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
-        <v/>
+        <v>DENOM</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3249,7 +4497,7 @@
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Age</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="14:18" x14ac:dyDescent="0.25">
@@ -3281,7 +4529,7 @@
       </c>
       <c r="R24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>DIN</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +4571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -3416,13 +4664,13 @@
         <v>43465</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9">
-        <v>30848</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I2" s="10">
         <v>365</v>
@@ -3435,6 +4683,9 @@
       </c>
       <c r="L2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="N2" s="11">
         <v>43266</v>
@@ -3458,13 +4709,13 @@
         <v>43830</v>
       </c>
       <c r="E3" s="9">
-        <v>585092</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>47092</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="N3"/>
       <c r="Q3" s="3" t="s">
@@ -3479,6 +4730,9 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>47135</v>
+      </c>
       <c r="N4"/>
       <c r="Q4" s="3" t="s">
         <v>18</v>
@@ -3515,7 +4769,7 @@
       </c>
       <c r="R8" s="4" t="str">
         <f t="shared" ref="R8:R9" si="1">IF(COUNTIF($M$2:$M$4,Q8),"",Q8)</f>
-        <v>40</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -3525,7 +4779,7 @@
       </c>
       <c r="R9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -3554,7 +4808,7 @@
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" ref="R13:R19" si="2">IF(COUNTIF($F$2:$F$9,Q13),"",Q13)</f>
-        <v>DENOM</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -3564,7 +4818,7 @@
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DIN</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -3613,7 +4867,7 @@
       </c>
       <c r="R19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Age</v>
       </c>
     </row>
     <row r="21" spans="14:18" x14ac:dyDescent="0.25">
@@ -3681,289 +4935,6 @@
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="3" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43465</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="4" t="str">
-        <f>IF(COUNTIF($H$2:$H$4,N2),"",N2)</f>
-        <v/>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C3" s="5">
-        <v>43830</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="4" t="str">
-        <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>L, M, M1 à M3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="str">
-        <f>IF(COUNTIF($J$2:$J$4,N7),"",N7)</f>
-        <v>03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="4" t="str">
-        <f t="shared" ref="O8:O9" si="1">IF(COUNTIF($J$2:$J$4,N8),"",N8)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="4" t="str">
-        <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="4" t="str">
-        <f t="shared" ref="O13:O19" si="2">IF(COUNTIF($F$2:$F$9,N13),"",N13)</f>
-        <v>DENOM</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>DIN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeList</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeServ</v>
-      </c>
-    </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Teneur</v>
-      </c>
-    </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Format</v>
-      </c>
-    </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Age</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
-      <formula1>35065</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"AHFS, DENOM, DIN"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>$O$2:$O$4</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
-      <formula1>$O$7:$O$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
-      <formula1>$Q$2:$Q$3</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
-      <formula1>$O$12:$O$19</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4054,7 +5025,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -4087,7 +5058,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
@@ -4107,6 +5078,9 @@
       <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
@@ -4115,13 +5089,24 @@
         <v>L, M, M1 à M3</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>20</v>
       </c>
@@ -4131,6 +5116,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4140,6 +5128,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4159,7 +5150,7 @@
       </c>
       <c r="O12" s="4" t="str">
         <f>IF(COUNTIF($F$2:$F$9,N12),"",N12)</f>
-        <v>AHFS</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -4186,7 +5177,7 @@
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CodeList</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -4195,7 +5186,7 @@
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CodeServ</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="14:15" x14ac:dyDescent="0.25">
@@ -4204,7 +5195,7 @@
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Teneur</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="14:15" x14ac:dyDescent="0.25">
@@ -4213,7 +5204,7 @@
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Format</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="14:15" x14ac:dyDescent="0.25">
@@ -4222,7 +5213,7 @@
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Age</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21113FED-3F08-4ADA-AC33-225A301F055F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="naif_switch1_ex02" sheetId="45" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <sheet name="stat_gen1_ex06" sheetId="44" r:id="rId13"/>
     <sheet name="stat_gen1_ex07" sheetId="47" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="53">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -547,12 +548,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -892,37 +893,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -930,12 +931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1045,15 +1046,12 @@
       <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
+        <v>AD</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -1183,32 +1181,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0900-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0900-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0900-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0900-000006000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0900-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0900-000008000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0900-000009000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0900-00000A000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0900-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0900-00000C000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0900-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1216,12 +1214,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1334,15 +1332,12 @@
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
+        <v>AD</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -1472,32 +1467,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0A00-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0A00-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0A00-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0A00-000007000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0A00-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0A00-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0A00-00000A000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0A00-00000B000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0A00-00000C000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0A00-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1505,12 +1500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1620,15 +1617,12 @@
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
+        <v>AD</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -1755,32 +1749,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0B00-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0B00-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0B00-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0B00-000006000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0B00-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0B00-000008000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0B00-000009000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0B00-00000A000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0B00-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0B00-00000C000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0B00-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1788,12 +1782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1910,15 +1904,12 @@
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
+        <v>AD</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -2045,32 +2036,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0C00-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0C00-000003000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0C00-000004000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0C00-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0C00-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0C00-000007000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0C00-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0C00-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0C00-00000A000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0C00-00000B000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0C00-00000C000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0C00-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2078,12 +2069,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2338,32 +2329,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0D00-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0D00-000003000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0D00-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0D00-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0D00-000006000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0D00-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0D00-000008000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0D00-000009000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0D00-00000A000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0D00-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0D00-00000C000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0D00-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2371,12 +2362,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2695,37 +2686,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-00000F000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2733,12 +2724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3054,37 +3045,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0200-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0200-00000E000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0200-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3092,12 +3083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3425,37 +3418,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0300-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0300-00000E000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-00000F000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0300-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3463,12 +3456,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3796,37 +3789,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0400-000007000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0400-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0400-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0400-00000A000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0400-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0400-00000D000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0400-00000E000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0400-00000F000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0400-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3834,12 +3827,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4170,37 +4163,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0500-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0500-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0500-00000C000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0500-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0500-00000E000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0500-00000F000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0500-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4208,12 +4201,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4534,37 +4527,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0600-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0600-00000A000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0600-00000B000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0600-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0600-00000D000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0600-00000E000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0600-00000F000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0600-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4572,12 +4565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4904,37 +4897,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0700-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0700-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0700-00000B000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0700-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0700-00000E000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4942,12 +4935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -5060,15 +5053,12 @@
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O4" si="0">IF(COUNTIF($H$2:$H$4,N3),"",N3)</f>
-        <v/>
+        <v>AD</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -5218,32 +5208,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0800-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0800-000006000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0800-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0800-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0800-00000A000000}">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0800-00000B000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0800-00000C000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0800-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
+++ b/Documentation/AIDE-FORMULAIRE-EXEMPLES-ARGUMENTS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\INESSS-QC_inesss1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21113FED-3F08-4ADA-AC33-225A301F055F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="naif_switch1_ex02" sheetId="45" r:id="rId1"/>
@@ -211,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -548,12 +547,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -893,37 +892,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -931,12 +930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1181,32 +1180,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0900-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0900-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0900-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0900-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0900-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0900-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0900-000008000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0900-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0900-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0900-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0900-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0900-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1214,12 +1213,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1467,32 +1466,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0A00-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0A00-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0A00-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0A00-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0A00-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0A00-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0A00-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0A00-00000B000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0A00-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0A00-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1500,14 +1499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -1749,32 +1746,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0B00-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0B00-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0B00-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0B00-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0B00-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0B00-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0B00-000008000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0B00-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0B00-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0B00-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0B00-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0B00-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1782,12 +1779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2036,32 +2033,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0C00-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0C00-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0C00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0C00-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0C00-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0C00-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0C00-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0C00-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0C00-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0C00-00000B000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0C00-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0C00-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2069,12 +2066,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2329,32 +2326,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0D00-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0D00-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0D00-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0D00-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0D00-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0D00-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0D00-000008000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0D00-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0D00-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0D00-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0D00-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0D00-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2362,12 +2359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2686,37 +2683,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0100-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2724,12 +2721,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3045,37 +3042,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0200-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0200-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0200-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0200-00000C000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0200-00000E000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0200-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0200-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3083,14 +3080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3418,37 +3415,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0300-000008000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0300-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0300-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0300-00000E000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0300-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3456,12 +3453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3789,37 +3786,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0400-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0400-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0400-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0400-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0400-00000A000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0400-00000C000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0400-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0400-00000E000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0400-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0400-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3827,12 +3824,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4163,37 +4160,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0500-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0500-000008000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0500-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0500-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0500-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0500-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0500-00000E000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0500-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0500-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4201,12 +4198,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4527,37 +4524,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0600-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0600-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0600-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0600-00000A000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0600-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0600-00000C000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0600-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0600-00000E000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0600-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0600-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4565,12 +4562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -4680,9 +4677,7 @@
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11">
-        <v>43266</v>
-      </c>
+      <c r="N2" s="11"/>
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
@@ -4897,37 +4892,37 @@
     </row>
   </sheetData>
   <dataValidations count="17">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0700-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0700-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0700-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0700-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>$R$2:$R$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576" xr:uid="{00000000-0002-0000-0700-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576" xr:uid="{00000000-0002-0000-0700-000007000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{00000000-0002-0000-0700-000008000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules K2 à K4" sqref="K5:K1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules M2 à M4" sqref="M5:M1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2" xr:uid="{00000000-0002-0000-0700-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 L2">
       <formula1>$T$2:$T$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0700-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0700-00000B000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0700-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule J2" sqref="J3:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$R$12:$R$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-0700-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0700-00000E000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0700-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule N2" sqref="N3:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$R$22:$R$24</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule L2" sqref="L3:L1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4935,12 +4930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -5208,32 +5203,32 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Inscrire une date dans la cellule K2 au format AAAA-MM-JJ" sqref="K3:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>$O$12:$O$19</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0800-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$O$7:$O$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0800-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0800-000006000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0800-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0800-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576" xr:uid="{00000000-0002-0000-0800-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0800-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules F2 à F9" sqref="F10:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"AHFS, DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0800-00000B000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0800-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0800-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
